--- a/intervention/english_literature_auto.xlsx
+++ b/intervention/english_literature_auto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,47 +442,47 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>W931252111065</t>
+          <t>G931259509014</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B931259309004</t>
+          <t>W931252111065</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G931259509014</t>
+          <t>B931259309004</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D931325309031</t>
+          <t>G931321113006</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -502,11 +502,11 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>G931321113006</t>
+          <t>D931325309031</t>
         </is>
       </c>
     </row>
@@ -532,11 +532,11 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R931252710029</t>
+          <t>Q931235212001</t>
         </is>
       </c>
     </row>
@@ -562,31 +562,31 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Q931235212001</t>
+          <t>R931252710029</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>X931325208068</t>
+          <t>Y931325210014</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>M931321110016</t>
+          <t>Q931101109046</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>W931383410018</t>
+          <t>U931383908031</t>
         </is>
       </c>
     </row>
@@ -606,53 +606,53 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>D931252710019</t>
+          <t>M931321110016</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Q931101109046</t>
+          <t>X886463320016</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>X886463320016</t>
+          <t>W931383410018</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>U931383908031</t>
+          <t>X931325208068</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Y931325210014</t>
+          <t>Z931101109005</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -672,201 +672,201 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Z931101109005</t>
+          <t>Y931412017035</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Y931412017035</t>
+          <t>B931235209044</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>B931235209044</t>
+          <t>R931100609009</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R931100609009</t>
+          <t>N931325209054</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>N931325209054</t>
+          <t>F931252509025</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>F931252509025</t>
+          <t>U931325208066</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>U931325208066</t>
+          <t>M931321009023</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>M931321009023</t>
+          <t>C931100609037</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>C931100609037</t>
+          <t>L931412020028</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>L931412020028</t>
+          <t>Q931258910001</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Q931258910001</t>
+          <t>H931321309010</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>H931321309010</t>
+          <t>L931252709035</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>L931252709035</t>
+          <t>N931101108063</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>N931101108063</t>
+          <t>Q931252109012</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Q931252109012</t>
+          <t>G931383411018</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>G931383411018</t>
+          <t>U931252114001</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>U931252114001</t>
+          <t>M931252110020</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>M931252110020</t>
+          <t>N931253409013</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>N931253409013</t>
+          <t>M931252710007</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>M931252710007</t>
+          <t>M931252916068</t>
         </is>
       </c>
     </row>
@@ -882,119 +882,99 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>D931100609030</t>
+          <t>K931252910051</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>K931252910051</t>
+          <t>C931253116052</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>J931101109071</t>
+          <t>X931412020027</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>C931253116052</t>
+          <t>Q931101008033</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>X931412020027</t>
+          <t>U931101008035</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Q931101008033</t>
+          <t>Q931100609020</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>U931101008035</t>
+          <t>F931100609041</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Q931100609020</t>
+          <t>F931235210018</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>F931100609041</t>
+          <t>D931100609030</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="B55" t="inlineStr">
-        <is>
-          <t>F931235210018</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>M931252916068</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B57" t="inlineStr">
         <is>
           <t>V931101109041</t>
         </is>
